--- a/Collections/Евро/Greece/#EURO#Greece#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Greece/#EURO#Greece#Regular[2002-present]#circulation_quality.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="2cents" sheetId="5" r:id="rId1"/>
@@ -616,7 +616,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="129">
   <si>
     <t>-</t>
   </si>
@@ -994,6 +994,15 @@
   </si>
   <si>
     <t>1.017.500</t>
+  </si>
+  <si>
+    <t>eurocollection</t>
+  </si>
+  <si>
+    <t>High convenience single table of varieties with photos</t>
+  </si>
+  <si>
+    <t>High convenience set of tables table of actual coins with photos</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1285,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1329,28 +1338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1365,8 +1353,14 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,14 +1371,32 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1392,14 +1404,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="28">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1601,239 +1614,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1858,16 +1638,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C6" totalsRowShown="0">
-  <autoFilter ref="A1:C6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="56"/>
-    <tableColumn id="2" name="Link" dataDxfId="55" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="54"/>
+    <tableColumn id="1" name="№" dataDxfId="2"/>
+    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -2138,7 +1918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="9" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -2157,29 +1937,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2756,29 +2536,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +3056,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="52" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3293,7 +3073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H20">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3310,7 +3090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G20">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -3353,29 +3133,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3691,7 +3471,7 @@
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="20" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -3873,7 +3653,7 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3:G13 G15:G20">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3890,7 +3670,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3907,7 +3687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H20">
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3924,7 +3704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3969,29 +3749,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4303,7 +4083,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="20" t="s">
         <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -4359,7 +4139,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -4387,7 +4167,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -4501,639 +4281,6 @@
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H20">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H20">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G20">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2002</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="str">
-        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>2003</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f t="shared" ref="I4:I20" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>2004</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>2006</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2007</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>2009</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>2011</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>2012</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>2013</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>2014</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>2015</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>2016</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>2017</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>2018</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>2019</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -5192,7 +4339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G20">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5212,7 +4359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -5220,7 +4367,7 @@
       <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5235,29 +4382,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="27"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="36"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5268,13 +4415,13 @@
         <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5290,20 +4437,20 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5458,7 +4605,7 @@
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -5486,7 +4633,7 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -5514,7 +4661,7 @@
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -5542,7 +4689,7 @@
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -5569,7 +4716,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="20" t="s">
         <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -5597,7 +4744,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="20" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -5625,7 +4772,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -5653,7 +4800,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -5681,7 +4828,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -5709,7 +4856,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -5737,7 +4884,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -5766,7 +4913,7 @@
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
@@ -5825,7 +4972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G20">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -5845,12 +4992,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E20"/>
+      <pane xSplit="9" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5865,29 +5015,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="37"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="36"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5898,13 +5048,13 @@
         <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -5912,43 +5062,43 @@
       <c r="A3" s="8">
         <v>2002</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>16</v>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="19">
         <v>1</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
+        <v>Can exchange</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>2003</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>16</v>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>0</v>
@@ -5968,21 +5118,21 @@
       <c r="A5" s="8">
         <v>2004</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
@@ -5996,15 +5146,15 @@
       <c r="A6" s="8">
         <v>2005</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>16</v>
+      <c r="B6" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>0</v>
@@ -6024,15 +5174,15 @@
       <c r="A7" s="8">
         <v>2006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>16</v>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>0</v>
@@ -6052,15 +5202,15 @@
       <c r="A8" s="8">
         <v>2007</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>0</v>
@@ -6080,15 +5230,15 @@
       <c r="A9" s="8">
         <v>2008</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>16</v>
+      <c r="B9" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>0</v>
@@ -6108,15 +5258,15 @@
       <c r="A10" s="8">
         <v>2009</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>16</v>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>0</v>
@@ -6136,15 +5286,15 @@
       <c r="A11" s="8">
         <v>2010</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>16</v>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>0</v>
@@ -6164,15 +5314,15 @@
       <c r="A12" s="8">
         <v>2011</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>16</v>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>0</v>
@@ -6192,14 +5342,14 @@
       <c r="A13" s="8">
         <v>2012</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>16</v>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="20" t="s">
         <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -6220,14 +5370,14 @@
       <c r="A14" s="8">
         <v>2013</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>16</v>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="20" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -6248,14 +5398,14 @@
       <c r="A15" s="8">
         <v>2014</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>16</v>
+      <c r="B15" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -6276,14 +5426,14 @@
       <c r="A16" s="8">
         <v>2015</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>16</v>
+      <c r="B16" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -6304,14 +5454,14 @@
       <c r="A17" s="8">
         <v>2016</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>16</v>
+      <c r="B17" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -6332,14 +5482,14 @@
       <c r="A18" s="8">
         <v>2017</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>16</v>
+      <c r="B18" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -6360,14 +5510,14 @@
       <c r="A19" s="8">
         <v>2018</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>16</v>
+      <c r="B19" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -6388,20 +5538,20 @@
       <c r="A20" s="8">
         <v>2019</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>16</v>
+      <c r="B20" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="38" t="s">
-        <v>123</v>
+      <c r="E20" s="11" t="s">
+        <v>116</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="1">
         <v>0</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -6455,7 +5605,637 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G20">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="12.453125" style="4" customWidth="1"/>
+    <col min="7" max="8" width="3.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7265625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34"/>
+      <c r="G1" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="19">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(OR(AND(G3&gt;1,G3&lt;&gt;"-"),AND(H3&gt;1,H3&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f t="shared" ref="I4:I20" si="0">IF(OR(AND(G4&gt;1,G4&lt;&gt;"-"),AND(H4&gt;1,H4&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>2004</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>2006</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>2007</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2009</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H20">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H20">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G20">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -6498,29 +6278,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="36" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -6692,7 +6472,7 @@
         <v>34</v>
       </c>
       <c r="D8" s="10"/>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="20" t="s">
         <v>124</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -6804,7 +6584,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="10"/>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="20" t="s">
         <v>99</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -6832,7 +6612,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="20" t="s">
         <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -6860,7 +6640,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="20" t="s">
         <v>85</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -6888,7 +6668,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="6" t="s">
@@ -6916,7 +6696,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="10"/>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -6944,7 +6724,7 @@
         <v>34</v>
       </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F17" s="6" t="s">
@@ -6972,7 +6752,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="20" t="s">
         <v>110</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -7000,7 +6780,7 @@
         <v>34</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="20" t="s">
         <v>102</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -7028,7 +6808,7 @@
         <v>34</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="20" t="s">
         <v>123</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -7054,7 +6834,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7071,7 +6851,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H20">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(H4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7088,7 +6868,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:G20">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
@@ -7110,13 +6890,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C12" activeCellId="1" sqref="A7:C8 C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -7192,6 +6972,28 @@
         <v>35</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -7199,10 +7001,12 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Collections/Евро/Greece/#EURO#Greece#Regular[2002-present]#circulation_quality.xlsx
+++ b/Collections/Евро/Greece/#EURO#Greece#Regular[2002-present]#circulation_quality.xlsx
@@ -1341,6 +1341,9 @@
     <xf numFmtId="3" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,9 +1397,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1937,29 +1937,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -2536,29 +2536,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3133,29 +3133,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -3749,29 +3749,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="29"/>
+      <c r="G1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -4382,29 +4382,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5015,29 +5015,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="36"/>
+      <c r="H1" s="37"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -5645,29 +5645,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -6278,29 +6278,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="37" t="s">
+      <c r="F1" s="35"/>
+      <c r="G1" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
@@ -6896,7 +6896,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" activeCellId="1" sqref="A7:C8 C12"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -6979,7 +6979,7 @@
       <c r="B7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="21" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6990,7 +6990,7 @@
       <c r="B8" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="21" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7001,8 +7001,8 @@
     <hyperlink ref="B4" r:id="rId3"/>
     <hyperlink ref="B5" r:id="rId4"/>
     <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
